--- a/medicine/Enfance/Danielle_Thiéry/Danielle_Thiéry.xlsx
+++ b/medicine/Enfance/Danielle_Thiéry/Danielle_Thiéry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Danielle_Thi%C3%A9ry</t>
+          <t>Danielle_Thiéry</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Danielle Thiéry, née le 15 octobre 1947 à Viévigne[1] en Côte-d'Or, est une ancienne commissaire divisionnaire (l'une des premières femmes de l’histoire de la police française à accéder à ce grade), aujourd'hui écrivain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Danielle Thiéry, née le 15 octobre 1947 à Viévigne en Côte-d'Or, est une ancienne commissaire divisionnaire (l'une des premières femmes de l’histoire de la police française à accéder à ce grade), aujourd'hui écrivain.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Danielle_Thi%C3%A9ry</t>
+          <t>Danielle_Thiéry</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est née en Bourgogne en 1947. Son père est policier et son frère travaille chez les CRS. Elle fait, dans la deuxième partie des années 1960 des études de droit, et d'éducatrice spécialisée. Puis elle devient en 1969 inspectrice de police puis chef des « stups » à la Sûreté de Lyon[2].
-Danielle Thiéry est l'une des premières femmes dans l'histoire de la police française à accéder au grade de commissaire en 1976[2],[3]. Elle est alors présentée dans les médias comme porte-parole de la cause féminine, participant à l'émission Les femmes à la barre (Radio France) avec la première femme à avoir gravi l'Everest ou encore de Régine Desforges[2].
-En 1986, elle travaille à la sécurisation du tunnel sous la Manche. En 1989, elle devient la cheffe de la brigade de sécurité des chemins de fer (chargée de pacifier les trains de banlieue parisienne) puis, en 1991, la toute première femme commissaire divisionnaire[2],[4] (suivie la même année par Mireille Ballestrazzi et Martine Monteil[2]). Par la suite, elle travaille en tant que directrice de la sûreté pour de grandes entreprises françaises telles que Air France (vivant en direct la prise d'otage de 1994) ou La Poste[2],[5].
-Elle entame sa carrière d'écrivain dans les années 1990. Elle publie de nombreux romans policiers ainsi que des scénarios à destination de la télévision[2],[5]. Depuis 2015, elle préside le jury spécial police du Festival du film policier de Beaune[5].
-Mariée, elle est mère d'un fils et d'une fille[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est née en Bourgogne en 1947. Son père est policier et son frère travaille chez les CRS. Elle fait, dans la deuxième partie des années 1960 des études de droit, et d'éducatrice spécialisée. Puis elle devient en 1969 inspectrice de police puis chef des « stups » à la Sûreté de Lyon.
+Danielle Thiéry est l'une des premières femmes dans l'histoire de la police française à accéder au grade de commissaire en 1976,. Elle est alors présentée dans les médias comme porte-parole de la cause féminine, participant à l'émission Les femmes à la barre (Radio France) avec la première femme à avoir gravi l'Everest ou encore de Régine Desforges.
+En 1986, elle travaille à la sécurisation du tunnel sous la Manche. En 1989, elle devient la cheffe de la brigade de sécurité des chemins de fer (chargée de pacifier les trains de banlieue parisienne) puis, en 1991, la toute première femme commissaire divisionnaire, (suivie la même année par Mireille Ballestrazzi et Martine Monteil). Par la suite, elle travaille en tant que directrice de la sûreté pour de grandes entreprises françaises telles que Air France (vivant en direct la prise d'otage de 1994) ou La Poste,.
+Elle entame sa carrière d'écrivain dans les années 1990. Elle publie de nombreux romans policiers ainsi que des scénarios à destination de la télévision,. Depuis 2015, elle préside le jury spécial police du Festival du film policier de Beaune.
+Mariée, elle est mère d'un fils et d'une fille.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Danielle_Thi%C3%A9ry</t>
+          <t>Danielle_Thiéry</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série « Commissaire Marion »
-1996 : Le Sang du bourreau, éditions J.-C Lattès ; réédition, Masque poche no 20, 2013
+          <t>Série « Commissaire Marion »</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1996 : Le Sang du bourreau, éditions J.-C Lattès ; réédition, Masque poche no 20, 2013
 1998 : Mises à mort, éditions Robert Laffont
 1999 : Et pire, si affinités, éditions Robert Laffont
 2001 : Affaire classée, éditions Robert Laffont, réédition J'ai lu, 2014
@@ -565,27 +584,197 @@
 2016 : Tabous éditions Ombres Noires (Parution sept. 2016)
 2018 : Féroce éditions Flammarion (Parution mars 2018)
 2019 : Sex Doll éditions Flammarion (Parution mai 2019)
-2022 : La Souricière éditions Flammarion (Parution juin 2022)
-Série « Antony et Olympe Marin »
-2020 : Cannibale, éditions Syros
+2022 : La Souricière éditions Flammarion (Parution juin 2022)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Danielle_Thiéry</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danielle_Thi%C3%A9ry</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série « Antony et Olympe Marin »</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2020 : Cannibale, éditions Syros
 2021 : L'Ange obscur, éditions Syros
 2022 : Obsessions, éditions Syros
-2024 : Amnésie, éditions Syros
-Autres romans
-1995 : Mauvaise Graine, éditions J.-C Lattès ; réédition, Masque poche no 58, 2015
+2024 : Amnésie, éditions Syros</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Danielle_Thiéry</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danielle_Thi%C3%A9ry</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1995 : Mauvaise Graine, éditions J.-C Lattès ; réédition, Masque poche no 58, 2015
 1997 : La Petite Fille de Marie Gare, éditions Laffont
 1998 : La Guerre des nains, éditions Belfond
 2011 : J'irai cracher dans vos soupes, éditions Jacob-Duvernet
 2012 : Des clous dans le cœur, Fayard
 2019 : Nestor Burma - Piquette à la Roquette, éditions French Pulp
 2021 : Mourir ne suffit pas (coécrit avec Marc Welinski), éditions Anne Carrière
-2023 : La Bête des Vosges (coécrit avec Marc Welinski), Lajouanie
-Récit
-2011 : BRI, histoire d'une unité d'élite, éditions Jacob-Duvernet
-Collectif
-L’Enfance, c’est… / par 120 auteurs ; textes illustrés par Jack Koch ; préf. Aurélie Valognes. Paris : Le Livre de poche, novembre 2020.  (ISBN 978-2-253-08202-6)
-Littérature jeunesse
-Nuit blanche au musée, éditions Syros
+2023 : La Bête des Vosges (coécrit avec Marc Welinski), Lajouanie</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Danielle_Thiéry</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danielle_Thi%C3%A9ry</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Récit</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2011 : BRI, histoire d'une unité d'élite, éditions Jacob-Duvernet</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Danielle_Thiéry</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danielle_Thi%C3%A9ry</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Collectif</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L’Enfance, c’est… / par 120 auteurs ; textes illustrés par Jack Koch ; préf. Aurélie Valognes. Paris : Le Livre de poche, novembre 2020.  (ISBN 978-2-253-08202-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Danielle_Thiéry</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danielle_Thi%C3%A9ry</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Nuit blanche au musée, éditions Syros
 Les Trois Coups de minuit, éditions Syros
 Les Enfants perdus, éditions France loisirs
 Énigme au Grand Stade, éditions Syros
@@ -593,31 +782,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Danielle_Thi%C3%A9ry</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Danielle_Thi%C3%A9ry</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Danielle_Thiéry</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danielle_Thi%C3%A9ry</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix obtenus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Prix Bourgogne 1997 pour La petite fille de Marie Gare
 Prix Polar 1998 et Prix Charles Exbrayat 1998 pour Mises à mort
@@ -625,31 +816,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Danielle_Thi%C3%A9ry</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Danielle_Thi%C3%A9ry</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Danielle_Thiéry</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danielle_Thi%C3%A9ry</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
